--- a/KiCAD/BOM.xlsx
+++ b/KiCAD/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\walto\Files\School\Fall_2021\COMPE-496B\senior_design\KiCAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walto\Desktop\School\2021-Fall\COMPE-496B\senior_design\KiCAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18911BDB-CD22-490A-BDF5-E5C1F39B7160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2149E17-ACF7-4817-A2E5-B3F130AF3B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>https://www.amazon.com/Sydien-2-54mm-Connector-Rainbow-Ribbon/dp/B07Q2SGFWM/ref=sr_1_3?dchild=1&amp;keywords=ribbon+cable+with+connector+30+pin&amp;qid=1630610344&amp;sr=8-3</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/TB001-500-04BE/10064060</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/ULN2003AIN/653041</t>
+  </si>
+  <si>
+    <t>ULN2003</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/bourns-inc/PWR220T-35-8R00F/4699656</t>
+  </si>
+  <si>
+    <t>Power Resistor</t>
+  </si>
+  <si>
+    <t>4 term block</t>
+  </si>
+  <si>
+    <t>3 term block</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/TB001-500-03BE/10064059</t>
   </si>
 </sst>
 </file>
@@ -371,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,11 +427,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6CFA5734-3655-4CB9-9C96-D14D2D773A00}"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.amazon.com/uxcell-2-54mm-2x15-Pin-Straight-Connector/dp/B07DK2W2GS/ref=pd_bxgy_img_1/143-0247884-5310958?pd_rd_w=KpyrR&amp;pf_rd_p=c64372fa-c41c-422e-990d-9e034f73989b&amp;pf_rd_r=SRBYJQBFZ34YF0566HHA&amp;pd_rd_r=02b9afa0-abca-463e-9f0f-c59dc6afcaf5&amp;pd_rd_wg=YlIgz&amp;pd_rd_i=B07DK2W2GS&amp;psc=1" xr:uid="{B445E7CF-4448-4FE5-A656-1A3296E6CBF7}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{997C2748-8490-48CB-AB8C-CAC9FBDF69A1}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{31D64544-21D8-440D-9ED6-E73F691AE3C1}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{04AC8433-EFD0-4FCA-9FB9-D6D308B90ED7}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{D435322E-ABD6-4EC2-8673-5BB8A7665B89}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{47631331-9FB6-45E4-8AFA-800024B48380}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
